--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_20_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_20_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>110574.3977788747</v>
+        <v>108135.9246791278</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12461809.16853215</v>
+        <v>12461809.16853214</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +659,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>307.0284381244528</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>203.4926237682685</v>
       </c>
       <c r="H2" t="n">
-        <v>131.2459249020448</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>74.7576914549238</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>16.90415318435322</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>278.1429131767417</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>193.3817745660511</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247809</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1054,22 +1054,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>48.06523889376648</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1114,13 +1114,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>189.1329927668885</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>134.3002202704828</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>218.5174356271579</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.66170088426</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>79.54581243241793</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>99.76189317295189</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1661,7 +1661,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>23.10998325717172</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1822,13 +1822,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>26.07046444231936</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.709655389038</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>56.04917322725412</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,10 +2011,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>19.91555826188928</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365925</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520963</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2132,7 +2132,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576149</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>34.69211367164365</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E25" t="n">
-        <v>146.433962646568</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,16 +2524,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>71.60395572454172</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,10 +2722,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>102.15578456998</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>26.1362719570585</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,19 +3232,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>134.5665975534137</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>105.56838945123</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>21.63824106824953</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3433,7 +3433,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3472,10 +3472,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3667,19 +3667,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>26.1362719570585</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3904,13 +3904,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>5.421623586788372</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4141,13 +4141,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,19 +4180,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>178.513465597807</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1032.06112435253</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="C2" t="n">
-        <v>663.0986074121186</v>
+        <v>611.6407204003804</v>
       </c>
       <c r="D2" t="n">
-        <v>663.0986074121186</v>
+        <v>611.6407204003804</v>
       </c>
       <c r="E2" t="n">
-        <v>663.0986074121186</v>
+        <v>611.6407204003804</v>
       </c>
       <c r="F2" t="n">
-        <v>656.1531066629151</v>
+        <v>611.6407204003804</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0806565079116</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4352,28 +4352,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2535.034709923658</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2182.266054653544</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>1808.800296392464</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1418.660964416652</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4422,13 +4422,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>941.4970410294717</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="C4" t="n">
-        <v>772.5608581015648</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.46409084602</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1615.697475415546</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1615.697475415546</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1361.012987209659</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>1361.012987209659</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X4" t="n">
-        <v>1343.938085003241</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y4" t="n">
-        <v>1123.145505859711</v>
+        <v>142.0249360836216</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1363.124011696101</v>
+        <v>1127.748203495405</v>
       </c>
       <c r="C5" t="n">
-        <v>994.1614947556893</v>
+        <v>1127.748203495405</v>
       </c>
       <c r="D5" t="n">
-        <v>994.1614947556893</v>
+        <v>769.4825048886548</v>
       </c>
       <c r="E5" t="n">
-        <v>608.373242157445</v>
+        <v>488.5300673363905</v>
       </c>
       <c r="F5" t="n">
-        <v>601.4277414082416</v>
+        <v>77.5441625467829</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4574,43 +4574,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993392</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.097597267229</v>
+        <v>2961.784676410104</v>
       </c>
       <c r="V5" t="n">
-        <v>2866.097597267229</v>
+        <v>2630.721789066533</v>
       </c>
       <c r="W5" t="n">
-        <v>2513.328941997114</v>
+        <v>2277.953133796419</v>
       </c>
       <c r="X5" t="n">
-        <v>2139.863183736034</v>
+        <v>1904.487375535339</v>
       </c>
       <c r="Y5" t="n">
-        <v>1749.723851760223</v>
+        <v>1514.348043559527</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4620,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G6" t="n">
         <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064628</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4665,7 +4665,7 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125857</v>
@@ -4674,16 +4674,16 @@
         <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4699,43 +4699,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>601.818521755047</v>
+        <v>507.5323442946292</v>
       </c>
       <c r="C7" t="n">
-        <v>432.8823388271401</v>
+        <v>507.5323442946292</v>
       </c>
       <c r="D7" t="n">
-        <v>282.7656994148043</v>
+        <v>507.5323442946292</v>
       </c>
       <c r="E7" t="n">
-        <v>234.2149530574644</v>
+        <v>359.6192507122361</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574644</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G7" t="n">
-        <v>66.5121164321834</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T7" t="n">
-        <v>1837.464090846021</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1548.361223971664</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V7" t="n">
-        <v>1293.676735765777</v>
+        <v>880.2242361621301</v>
       </c>
       <c r="W7" t="n">
-        <v>1004.259565728817</v>
+        <v>689.1808091248689</v>
       </c>
       <c r="X7" t="n">
-        <v>1004.259565728817</v>
+        <v>689.1808091248689</v>
       </c>
       <c r="Y7" t="n">
-        <v>783.4669865852867</v>
+        <v>689.1808091248689</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>921.7704558796261</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C8" t="n">
-        <v>921.7704558796261</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>921.7704558796261</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>786.1136677276232</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4820,34 +4820,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3104.881139157497</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2773.818251813927</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2421.049596543812</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.50962791956</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943748</v>
+        <v>2047.583838282732</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064538</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4887,46 +4887,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,43 +4936,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>696.1640136694029</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C10" t="n">
-        <v>527.2278307414961</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>527.2278307414961</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>527.2278307414961</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>380.3378832435857</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>212.6350466183046</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4987,25 +4987,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1565.428901185557</v>
       </c>
       <c r="U10" t="n">
-        <v>1326.59460854119</v>
+        <v>1276.3260343112</v>
       </c>
       <c r="V10" t="n">
-        <v>1326.59460854119</v>
+        <v>1021.641546105313</v>
       </c>
       <c r="W10" t="n">
-        <v>1326.59460854119</v>
+        <v>732.2243760683527</v>
       </c>
       <c r="X10" t="n">
-        <v>1098.605057643173</v>
+        <v>732.2243760683527</v>
       </c>
       <c r="Y10" t="n">
-        <v>877.8124784996427</v>
+        <v>511.4317969248226</v>
       </c>
     </row>
     <row r="11">
@@ -5021,10 +5021,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5033,55 +5033,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L12" t="n">
-        <v>93.81666304797186</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M12" t="n">
-        <v>691.1951506745237</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N12" t="n">
-        <v>1318.79311422913</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O12" t="n">
-        <v>1870.702844468417</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>800.5007694647277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>800.5007694647277</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>650.3841300523919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5267,28 +5267,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,7 +5297,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,28 +5355,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>95.58405025273903</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>264.0500279773688</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>117.1600804794585</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>117.1600804794585</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5470,16 +5470,16 @@
         <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1755.431557602304</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135314</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>762.5477693179071</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2426.846358063201</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2243.991523718105</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2024.390058741046</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1735.314832085244</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1480.630343879357</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179071</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="20">
@@ -5729,16 +5729,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,22 +5747,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075801</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5780,16 +5780,16 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
         <v>3094.515198591809</v>
@@ -5829,28 +5829,28 @@
         <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>214.9229991561138</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>214.9229991561138</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>710.2486053718725</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M21" t="n">
-        <v>1307.627092998424</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797186</v>
@@ -5917,43 +5917,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580256</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.10824923516</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258101</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2009.464245195835</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1754.779756989948</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1465.362586952987</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1237.37303605497</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1016.58045691144</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5978,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6075,19 +6075,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1074.481071167373</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N24" t="n">
-        <v>1702.079034721979</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263525</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356184</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232826</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2307.590151828075</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2307.590151828075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2018.514925172273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>2018.514925172273</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135312</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237295</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093765</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192599</v>
@@ -6245,31 +6245,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,22 +6297,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>429.5088224239596</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>913.2907898187001</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N27" t="n">
         <v>1540.888753373307</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6443,37 +6443,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6537,19 +6537,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239596</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L30" t="n">
-        <v>924.8344286397182</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M30" t="n">
-        <v>1522.21291626627</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N30" t="n">
         <v>1859.536823237711</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C31" t="n">
-        <v>788.0191461778176</v>
+        <v>344.917417812163</v>
       </c>
       <c r="D31" t="n">
-        <v>637.9025067654818</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6634,37 +6634,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R31" t="n">
-        <v>2420.562808876161</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S31" t="n">
-        <v>2420.562808876161</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T31" t="n">
-        <v>2420.562808876161</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U31" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V31" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W31" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X31" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y31" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="32">
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6783,10 +6783,10 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M33" t="n">
-        <v>1074.481071167373</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N33" t="n">
         <v>1540.888753373307</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>948.5505208511906</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>779.6143379232838</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T34" t="n">
-        <v>2264.108249235165</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U34" t="n">
-        <v>1975.033022579363</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V34" t="n">
-        <v>1868.398285759938</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W34" t="n">
-        <v>1578.981115722978</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>1350.99156482496</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>1130.19898568143</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6923,19 +6923,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075813</v>
@@ -7026,16 +7026,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2092.798483612594</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>874.8686257536381</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257312</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
         <v>261.0127623330919</v>
@@ -7120,25 +7120,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2338.476105524075</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>2049.400878868273</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1794.716390662386</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1505.299220625425</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1277.309669727408</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>1056.517090583878</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7254,19 +7254,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>740.5562989961525</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M39" t="n">
-        <v>1337.934786622704</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>1965.532750177311</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>1965.532750177311</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>637.9025067654818</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>489.9894131830887</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2420.562808876161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,31 +7397,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239596</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>739.5354516872161</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.913939313768</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>1964.511902868375</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>564.5188827892232</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>414.4022433768874</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>266.4891497944943</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7597,22 +7597,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,31 +7634,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7667,7 +7667,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7728,25 +7728,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>454.6048385560546</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>949.9304447718133</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>-6.188914913328604e-14</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22547,16 +22547,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>58.24445364655472</v>
       </c>
       <c r="D2" t="n">
-        <v>261.8627288941927</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22711,7 +22711,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22720,10 +22720,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22753,22 +22753,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>208.8055022046839</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>46.67206947361728</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>117.1847295890522</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,10 +23710,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>260.4525338942717</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>111.1976478713737</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,10 +23899,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>46.45968844823241</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>251.4923607176005</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,16 +24412,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>109.4223302771029</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,10 +24610,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>44.73700564187207</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>46.45968844823237</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>40.23897475306318</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,19 +25120,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>46.45968844823085</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>146.569253872598</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>145.6085800303783</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,7 +25321,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25360,10 +25360,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>191.2691783702298</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25792,13 +25792,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>139.9994244361429</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26029,13 +26029,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26068,19 +26068,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>73.62417772602097</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1081668.123889505</v>
+        <v>1081668.123889504</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1081668.123889505</v>
+        <v>1081668.123889504</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1081668.123889505</v>
+        <v>1081668.123889504</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1081668.123889505</v>
+        <v>1081668.123889504</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1081668.123889505</v>
+        <v>1081668.123889504</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1081668.123889505</v>
+        <v>1081668.123889504</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1081668.123889505</v>
+        <v>1081668.123889504</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1081668.123889505</v>
+        <v>1081668.123889504</v>
       </c>
     </row>
   </sheetData>
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>317255.8761406861</v>
+        <v>317255.8761406863</v>
       </c>
       <c r="C2" t="n">
         <v>348942.7521923205</v>
       </c>
       <c r="D2" t="n">
-        <v>348942.7521923205</v>
+        <v>348942.7521923204</v>
       </c>
       <c r="E2" t="n">
+        <v>343037.3048682528</v>
+      </c>
+      <c r="F2" t="n">
         <v>343037.3048682527</v>
-      </c>
-      <c r="F2" t="n">
-        <v>343037.3048682529</v>
       </c>
       <c r="G2" t="n">
         <v>343037.3048682527</v>
       </c>
       <c r="H2" t="n">
-        <v>343037.3048682528</v>
+        <v>343037.3048682527</v>
       </c>
       <c r="I2" t="n">
-        <v>343037.3048682527</v>
+        <v>343037.3048682529</v>
       </c>
       <c r="J2" t="n">
         <v>343037.3048682529</v>
@@ -26341,19 +26341,19 @@
         <v>343037.3048682528</v>
       </c>
       <c r="L2" t="n">
-        <v>343037.3048682527</v>
+        <v>343037.3048682528</v>
       </c>
       <c r="M2" t="n">
-        <v>343037.3048682527</v>
+        <v>343037.3048682525</v>
       </c>
       <c r="N2" t="n">
-        <v>343037.3048682527</v>
+        <v>343037.3048682528</v>
       </c>
       <c r="O2" t="n">
         <v>343037.3048682527</v>
       </c>
       <c r="P2" t="n">
-        <v>343037.3048682529</v>
+        <v>343037.3048682528</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>4.14093847211916e-10</v>
+        <v>3.539624622135307e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,10 +26387,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.755561243044213e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49629.0152055167</v>
+        <v>49629.01520551657</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818175</v>
+        <v>92183.89891818164</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818172</v>
+        <v>92183.89891818169</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
@@ -26433,13 +26433,13 @@
         <v>12996.86414683044</v>
       </c>
       <c r="H4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683049</v>
       </c>
       <c r="I4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683045</v>
       </c>
       <c r="J4" t="n">
-        <v>12996.86414683043</v>
+        <v>12996.86414683047</v>
       </c>
       <c r="K4" t="n">
         <v>12996.86414683044</v>
@@ -26454,7 +26454,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="O4" t="n">
-        <v>12996.86414683046</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="P4" t="n">
         <v>12996.86414683044</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1169051.825353816</v>
+        <v>-1169238.218742355</v>
       </c>
       <c r="C6" t="n">
-        <v>148824.912712745</v>
+        <v>148824.9127127452</v>
       </c>
       <c r="D6" t="n">
-        <v>148824.9127127455</v>
+        <v>148824.9127127454</v>
       </c>
       <c r="E6" t="n">
-        <v>-96494.55090983988</v>
+        <v>-96529.28883527535</v>
       </c>
       <c r="F6" t="n">
-        <v>228917.9108975153</v>
+        <v>228883.1729720794</v>
       </c>
       <c r="G6" t="n">
-        <v>228917.9108975151</v>
+        <v>228883.1729720794</v>
       </c>
       <c r="H6" t="n">
-        <v>228917.9108975154</v>
+        <v>228883.1729720794</v>
       </c>
       <c r="I6" t="n">
-        <v>228917.9108975151</v>
+        <v>228883.1729720797</v>
       </c>
       <c r="J6" t="n">
-        <v>11386.70850023789</v>
+        <v>11351.97057480228</v>
       </c>
       <c r="K6" t="n">
-        <v>228917.9108975152</v>
+        <v>228883.1729720793</v>
       </c>
       <c r="L6" t="n">
-        <v>228917.9108975151</v>
+        <v>228883.1729720795</v>
       </c>
       <c r="M6" t="n">
-        <v>143862.8829620034</v>
+        <v>143828.1450365675</v>
       </c>
       <c r="N6" t="n">
-        <v>228917.9108975151</v>
+        <v>228883.1729720795</v>
       </c>
       <c r="O6" t="n">
-        <v>228917.9108975151</v>
+        <v>228883.1729720794</v>
       </c>
       <c r="P6" t="n">
-        <v>228917.9108975153</v>
+        <v>228883.1729720795</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26738,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.401455402293</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26960,13 +26960,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,10 +27033,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27382,19 +27382,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>92.82031272649022</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>207.4291018851849</v>
       </c>
       <c r="H2" t="n">
-        <v>163.3618394852757</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>73.85778156328855</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>103.7874568955201</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>217.5399510874023</v>
-      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27774,22 +27774,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>98.36872375280269</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27822,10 +27822,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>97.39000556970248</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>247.630149801779</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>32.4777363317441</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0.09331403006078176</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28059,22 +28059,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>140.0031368437513</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28782,7 +28782,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>1.181774678116199e-12</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -28989,7 +28989,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>-2.241631118489267e-12</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29202,7 +29202,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29521,7 +29521,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31835,7 +31835,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
@@ -31844,22 +31844,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>487.5039436775326</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>550.5977692975241</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
@@ -32075,22 +32075,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>695.222208616788</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32099,7 +32099,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>353.130074847795</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,7 +32549,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>247.3820194983584</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
@@ -32561,19 +32561,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>565.6398038246476</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32795,22 +32795,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>208.6096528357818</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>537.262354434964</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,22 +33020,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>630.8026878560996</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>604.245822599193</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33257,13 +33257,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>183.7183104822601</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33272,7 +33272,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>472.0729312464055</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>142.5962444444444</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33439,7 +33439,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33503,13 +33503,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>602.4605829984181</v>
+        <v>499.3768644016574</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33652,13 +33652,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>556.532545233504</v>
+        <v>228.3420541567482</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33916,7 +33916,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33974,22 +33974,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>454.8099857531869</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,19 +34205,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>451.7125911569009</v>
+        <v>579.5299594447137</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34226,10 +34226,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34448,16 +34448,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>351.1157147121651</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>338.1309585028985</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34469,7 +34469,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>356.1622315941992</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>416.6233618831939</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>37.00975247789211</v>
@@ -35723,22 +35723,22 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>563.8804965334547</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35747,7 +35747,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>120.5443928316917</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>434.2980917413143</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36285,7 +36285,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010406</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
@@ -36443,22 +36443,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>66.47561891376348</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>394.6661099905195</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,22 +36668,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>488.6686539340813</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>472.9041105158597</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36920,7 +36920,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>340.7312191630721</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -37002,7 +37002,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060437</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37087,7 +37087,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37151,13 +37151,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>471.1188709150848</v>
+        <v>368.035152318324</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37300,13 +37300,13 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>425.1908331501707</v>
+        <v>97.00034207341486</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,22 +37622,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>320.8355783388566</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,19 +37853,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>313.1582113770268</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37874,10 +37874,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38096,16 +38096,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>213.2742757378061</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>206.7892464195652</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38117,7 +38117,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
